--- a/mean_data.xlsx
+++ b/mean_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\Afc_ExpeMemoire_VersionPC\analyses\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639920DE-0BD1-41ED-9D99-AE499A47B0E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,11 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -107,19 +98,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,18 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -460,98 +403,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>70.107142857142861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>69.77777777777777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>68.318594104308389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>70.96604938271605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>68.010912698412696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>71.27160493827161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>72.790816326530617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>70.88095238095238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+        <v>70.2962962962963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>76.265873015873012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+        <v>76.26543209876543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>74.61904761904762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+        <v>73.39814814814815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>74.133928571428569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+        <v>71.94444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>72.802083333333343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+        <v>74.52777777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>80.625</v>
+        <v>74.23148148148148</v>
       </c>
     </row>
   </sheetData>

--- a/mean_data.xlsx
+++ b/mean_data.xlsx
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69.77777777777777</v>
+        <v>69.47222222222223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>70.96604938271605</v>
+        <v>70.86111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>71.27160493827161</v>
+        <v>71.11111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>71.5</v>
+        <v>71.36111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>70.2962962962963</v>
+        <v>70.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>76.26543209876543</v>
+        <v>76.20370370370371</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>73.39814814814815</v>
+        <v>73.43518518518518</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>71.94444444444444</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>74.52777777777777</v>
+        <v>74.61111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>74.23148148148148</v>
+        <v>74.45370370370371</v>
       </c>
     </row>
   </sheetData>

--- a/mean_data.xlsx
+++ b/mean_data.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\Afc_ExpeMemoire_VersionPC\analyses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1995160-0817-45C9-84A3-0331CC0658AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>percentage_correct</t>
+  </si>
+  <si>
+    <t>ecart_type</t>
   </si>
   <si>
     <t>modulation_type</t>
@@ -34,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -98,11 +110,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,116 +441,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69.47222222222223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+        <v>69.472222222222229</v>
+      </c>
+      <c r="D2">
+        <v>5.1538071748040526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>70.86111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+        <v>70.861111111111114</v>
+      </c>
+      <c r="D3">
+        <v>3.623057163484527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>71.11111111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="D4">
+        <v>5.9989711051969277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>71.36111111111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
+        <v>71.361111111111114</v>
+      </c>
+      <c r="D5">
+        <v>5.2322598568760457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>70.33333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>70.333333333333329</v>
+      </c>
+      <c r="D6">
+        <v>5.5690114822012076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>76.20370370370371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+        <v>76.203703703703709</v>
+      </c>
+      <c r="D7">
+        <v>5.9813381475774552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>73.43518518518518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
+        <v>73.435185185185176</v>
+      </c>
+      <c r="D8">
+        <v>6.3052224309676879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>71.83333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
+        <v>71.833333333333329</v>
+      </c>
+      <c r="D9">
+        <v>6.0873274559165589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>74.61111111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+        <v>74.611111111111114</v>
+      </c>
+      <c r="D10">
+        <v>4.141777515470177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>74.45370370370371</v>
+        <v>74.453703703703709</v>
+      </c>
+      <c r="D11">
+        <v>6.3061197876670567</v>
       </c>
     </row>
   </sheetData>

--- a/mean_data.xlsx
+++ b/mean_data.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\Afc_ExpeMemoire_VersionPC\analyses\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1995160-0817-45C9-84A3-0331CC0658AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>percentage_correct</t>
   </si>
   <si>
-    <t>ecart_type</t>
+    <t>percent_sd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d_sd</t>
   </si>
   <si>
     <t>modulation_type</t>
@@ -43,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,11 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -110,19 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -164,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,23 +394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -465,135 +414,237 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69.472222222222229</v>
+        <v>69.3</v>
       </c>
       <c r="D2">
-        <v>5.1538071748040526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>5.080354318352216</v>
+      </c>
+      <c r="E2">
+        <v>0.72</v>
+      </c>
+      <c r="F2">
+        <v>0.1993489403031779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>70.861111111111114</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D3">
-        <v>3.623057163484527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>5.412023651093923</v>
+      </c>
+      <c r="E3">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.2329806858947754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>71.111111111111114</v>
+        <v>71.8</v>
       </c>
       <c r="D4">
-        <v>5.9989711051969277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>6.43117407632541</v>
+      </c>
+      <c r="E4">
+        <v>0.8290000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.2660244349679179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>71.361111111111114</v>
+        <v>71.3</v>
       </c>
       <c r="D5">
-        <v>5.2322598568760457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+        <v>6.885491994040803</v>
+      </c>
+      <c r="E5">
+        <v>0.8110000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.2861275939157215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>70.333333333333329</v>
+        <v>69.8</v>
       </c>
       <c r="D6">
-        <v>5.5690114822012076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+        <v>6.013318551349164</v>
+      </c>
+      <c r="E6">
+        <v>0.744</v>
+      </c>
+      <c r="F6">
+        <v>0.2492468655770821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>60.5</v>
+      </c>
+      <c r="D7">
+        <v>5.5</v>
+      </c>
+      <c r="E7">
+        <v>0.38</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>75.2</v>
+      </c>
+      <c r="D8">
+        <v>5.344155686354955</v>
+      </c>
+      <c r="E8">
+        <v>0.974</v>
+      </c>
+      <c r="F8">
+        <v>0.2402998127340094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>75.2</v>
+      </c>
+      <c r="D9">
+        <v>5.473572873361603</v>
+      </c>
+      <c r="E9">
+        <v>0.975</v>
+      </c>
+      <c r="F9">
+        <v>0.2402186504000054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D10">
+        <v>6.636264009214824</v>
+      </c>
+      <c r="E10">
+        <v>0.9119999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.3009252398852579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>5.310367218940701</v>
+      </c>
+      <c r="E11">
+        <v>0.876</v>
+      </c>
+      <c r="F11">
+        <v>0.2205538483001374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>76.203703703703709</v>
-      </c>
-      <c r="D7">
-        <v>5.9813381475774552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>73.435185185185176</v>
-      </c>
-      <c r="D8">
-        <v>6.3052224309676879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>71.833333333333329</v>
-      </c>
-      <c r="D9">
-        <v>6.0873274559165589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>74.611111111111114</v>
-      </c>
-      <c r="D10">
-        <v>4.141777515470177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>74.453703703703709</v>
-      </c>
-      <c r="D11">
-        <v>6.3061197876670567</v>
+      <c r="C12">
+        <v>73.8</v>
+      </c>
+      <c r="D12">
+        <v>5.74108003776293</v>
+      </c>
+      <c r="E12">
+        <v>0.914</v>
+      </c>
+      <c r="F12">
+        <v>0.2410062239860208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.82</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
